--- a/Base/Backlog_15.xlsx
+++ b/Base/Backlog_15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\franciscoj\Python_Initial\Pyhton_Web\Base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A661C4E-70B3-4A08-8EA8-4EA70BF40677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DA4F55-2564-482B-B6ED-C1FA04D2B004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="418" xr2:uid="{89A3EF9E-2AF9-420D-85DF-9BB5B68F651F}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>Jorgenaldo Reis</t>
   </si>
   <si>
-    <t>Erick Silva</t>
-  </si>
-  <si>
     <t>Felipe Nascimento</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
   </si>
   <si>
     <t>Lourival Moizés</t>
+  </si>
+  <si>
+    <t>Erick da Silva</t>
   </si>
 </sst>
 </file>
@@ -553,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69362A46-9E44-40AB-81A2-018EE27C1DC6}">
   <dimension ref="A1:K75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -614,7 +614,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="9">
         <v>2025</v>
@@ -638,7 +638,7 @@
         <v>45761</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>11</v>
@@ -649,7 +649,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C3" s="9">
         <v>2025</v>
@@ -684,7 +684,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C4" s="9">
         <v>2025</v>
@@ -719,7 +719,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C5" s="9">
         <v>2025</v>
@@ -754,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9">
         <v>2025</v>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9">
         <v>2025</v>
@@ -824,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C8" s="9">
         <v>2025</v>
@@ -859,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C9" s="9">
         <v>2025</v>
@@ -883,7 +883,7 @@
         <v>45761</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="9" t="s">
         <v>11</v>
@@ -894,7 +894,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C10" s="9">
         <v>2025</v>
@@ -918,7 +918,7 @@
         <v>45761</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10" s="9" t="s">
         <v>11</v>
@@ -929,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C11" s="9">
         <v>2025</v>
@@ -953,7 +953,7 @@
         <v>45761</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>11</v>
@@ -964,7 +964,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C12" s="9">
         <v>2025</v>
@@ -988,7 +988,7 @@
         <v>45761</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>11</v>
@@ -999,7 +999,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C13" s="9">
         <v>2025</v>
@@ -1034,7 +1034,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C14" s="9">
         <v>2025</v>
@@ -1069,7 +1069,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="9">
         <v>2025</v>
@@ -1104,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9">
         <v>2025</v>
@@ -1139,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="9">
         <v>2025</v>
@@ -1174,7 +1174,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9">
         <v>2025</v>
@@ -1209,7 +1209,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="9">
         <v>2025</v>
@@ -1244,7 +1244,7 @@
         <v>4</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="9">
         <v>2025</v>
@@ -1279,7 +1279,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" s="9">
         <v>2025</v>
@@ -1303,7 +1303,7 @@
         <v>45761</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>11</v>
@@ -1314,7 +1314,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="9">
         <v>2025</v>
@@ -1349,7 +1349,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="9">
         <v>2025</v>
@@ -1384,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="9">
         <v>2025</v>
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="9">
         <v>2025</v>
@@ -1454,7 +1454,7 @@
         <v>4</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="9">
         <v>2025</v>
@@ -1489,7 +1489,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="9">
         <v>2025</v>
@@ -1524,7 +1524,7 @@
         <v>4</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="9">
         <v>2025</v>
@@ -1629,7 +1629,7 @@
         <v>4</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="9">
         <v>2025</v>
@@ -1664,7 +1664,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="9">
         <v>2025</v>
@@ -1699,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="9">
         <v>2025</v>
@@ -1723,7 +1723,7 @@
         <v>45761</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K33" s="9" t="s">
         <v>11</v>
@@ -1734,7 +1734,7 @@
         <v>4</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="9">
         <v>2025</v>
@@ -1758,7 +1758,7 @@
         <v>45761</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K34" s="9" t="s">
         <v>11</v>
@@ -1769,7 +1769,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C35" s="9">
         <v>2025</v>
@@ -1793,7 +1793,7 @@
         <v>45761</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K35" s="9" t="s">
         <v>11</v>
@@ -1804,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C36" s="9">
         <v>2025</v>
@@ -1828,7 +1828,7 @@
         <v>45761</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K36" s="9" t="s">
         <v>11</v>
@@ -1839,7 +1839,7 @@
         <v>4</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="9">
         <v>2025</v>
@@ -1874,7 +1874,7 @@
         <v>4</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C38" s="9">
         <v>2025</v>
@@ -1898,7 +1898,7 @@
         <v>45761</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K38" s="9" t="s">
         <v>11</v>
@@ -1968,7 +1968,7 @@
         <v>45761</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K40" s="9" t="s">
         <v>11</v>
@@ -2003,7 +2003,7 @@
         <v>45761</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K41" s="9" t="s">
         <v>11</v>
@@ -2038,7 +2038,7 @@
         <v>45761</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K42" s="9" t="s">
         <v>11</v>
@@ -2342,7 +2342,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="9">
         <v>2025</v>
@@ -2366,7 +2366,7 @@
         <v>45761</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>15</v>
@@ -2377,7 +2377,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="9">
         <v>2025</v>
@@ -2401,7 +2401,7 @@
         <v>45761</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>15</v>
@@ -2412,7 +2412,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="9">
         <v>2025</v>
@@ -2436,7 +2436,7 @@
         <v>45761</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>15</v>
@@ -2447,7 +2447,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9">
         <v>2025</v>
@@ -2482,7 +2482,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="9">
         <v>2025</v>
